--- a/ebay_scraper.xlsx
+++ b/ebay_scraper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romek\Desktop\ebay scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE415B88-19A2-4EA0-AB27-3C12E39CF070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAE529-DDC1-4FF4-8733-9136EF26CD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="20505" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,27 +37,18 @@
     <author>Romek</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{F6F4B3ED-782A-46F2-BA70-98A4A43BFBFD}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Romek:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Do not change value unless restarting the data collection. If there is no data, this value should be 2. The program will update the value accordingly. </t>
+Do not change value unless restarting the data collection. If there is no data, this value should be 2. The program will update the value accordingly. </t>
         </r>
       </text>
     </comment>
@@ -66,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Title</t>
   </si>
@@ -82,6 +73,9 @@
   <si>
     <t>Current Month</t>
   </si>
+  <si>
+    <t>Times Ran (mth)</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,19 +99,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -146,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -164,11 +145,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -176,54 +159,74 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,10 +242,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,49 +529,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:6" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E2" s="6" t="s">
+      <c r="D2"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3"/>
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44771</v>
+        <v>44782</v>
       </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D4"/>
+      <c r="E4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D113"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D121"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D127"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D131"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D132"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D133"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D137"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D138"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D139"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D140"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D141"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D145"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D146"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D147"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D148"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D149"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D150"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D151"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D152"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D153"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D154"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D155"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D156"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D157"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D158"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D159"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D160"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D161"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D162"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D163"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D164"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D165"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D166"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D167"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D168"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D169"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D170"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D171"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D172"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D173"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D174"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D175"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D176"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D177"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D178"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D179"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D180"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D181"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D182"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D183"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D184"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D185"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D186"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D187"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D188"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D189"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D190"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D191"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D192"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D193"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D194"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D195"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D196"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D197"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D198"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D199"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D200"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D201"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D202"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D204"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D205"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D209"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D213"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D214"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D215"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D216"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D217"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D218"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D219"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D220"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D221"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D222"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D223"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D224"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D225"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D226"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D227"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D229"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D230"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D231"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D232"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D233"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D234"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D235"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D236"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D237"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D238"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D239"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D240"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D241"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D242"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D243"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D244"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D245"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D246"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D247"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D248"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D249"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D250"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D251"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D252"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D253"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D254"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D255"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D256"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D257"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D258"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D259"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D260"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D261"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D262"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D263"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D264"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D265"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D266"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D267"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D268"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D269"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D270"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ebay_scraper.xlsx
+++ b/ebay_scraper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romek\Desktop\ebay scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6925C-DADA-46E8-989B-2415D0686CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26FFBD-E490-444D-877F-FBB89B2C160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="20505" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="188">
   <si>
     <t>Title</t>
   </si>
@@ -68,22 +68,547 @@
     <t>Month</t>
   </si>
   <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Start Row</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Current Month</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Times Ran (mth)</t>
+  </si>
+  <si>
+    <t>2xl</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Sided</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>Political</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Graphic</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Xl</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>1990s</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Made</t>
+  </si>
+  <si>
+    <t>Stitch</t>
+  </si>
+  <si>
+    <t>80s</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Promo</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
     <t>Rare</t>
   </si>
   <si>
-    <t>Start Row</t>
-  </si>
-  <si>
-    <t>Xl</t>
-  </si>
-  <si>
-    <t>Current Month</t>
-  </si>
-  <si>
-    <t>Stitch</t>
-  </si>
-  <si>
-    <t>Times Ran (mth)</t>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Retro</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Biker</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Brockum</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Loom</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>90s</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Embroidered</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Pocket</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Wars</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Skull</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Y2k</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>2000s</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Fit</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>90's</t>
+  </si>
+  <si>
+    <t>Harley-davidson</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>With</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Nwt</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>Taz</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Aop</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Unisex</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Rap</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>T-shirt,</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>Anime</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>3xl</t>
+  </si>
+  <si>
+    <t>Distressed</t>
+  </si>
+  <si>
+    <t>Anvil</t>
+  </si>
+  <si>
+    <t>Hanes</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>90’s</t>
+  </si>
+  <si>
+    <t>Wwf</t>
+  </si>
+  <si>
+    <t>Wwe</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Ringer</t>
+  </si>
+  <si>
+    <t>Nfl</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Marlboro</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Looney</t>
+  </si>
+  <si>
+    <t>Tunes</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Nascar</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Punk</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>Funny</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Faded</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Grateful</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>00s</t>
+  </si>
+  <si>
+    <t>Mc5</t>
+  </si>
+  <si>
+    <t>Sizes</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Authentic</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>Weed</t>
+  </si>
+  <si>
+    <t>Culture</t>
   </si>
   <si>
     <t>Screen</t>
@@ -92,430 +617,10 @@
     <t>Stars</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Made</t>
-  </si>
-  <si>
-    <t>Usa</t>
-  </si>
-  <si>
     <t>Polo</t>
   </si>
   <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Sleeve</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>80s</t>
-  </si>
-  <si>
-    <t>Disney</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>Wars</t>
-  </si>
-  <si>
-    <t>Print</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>1990s</t>
-  </si>
-  <si>
-    <t>Mickey</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>90s</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>T-shirt,</t>
-  </si>
-  <si>
-    <t>Graphic</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Pocket</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Y2k</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sided</t>
-  </si>
-  <si>
-    <t>Is</t>
-  </si>
-  <si>
-    <t>Embroidered</t>
-  </si>
-  <si>
-    <t>With</t>
-  </si>
-  <si>
-    <t>Promo</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Harley</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>Grateful</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>Concert</t>
-  </si>
-  <si>
-    <t>Tour</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Nwt</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>Aop</t>
-  </si>
-  <si>
-    <t>Over</t>
-  </si>
-  <si>
-    <t>Nascar</t>
-  </si>
-  <si>
-    <t>3xl</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Movie</t>
-  </si>
-  <si>
-    <t>Baseball</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Anime</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>Hip</t>
-  </si>
-  <si>
-    <t>Hop</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Cafe</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Cars</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>Hanes</t>
-  </si>
-  <si>
-    <t>Wwe</t>
-  </si>
-  <si>
-    <t>Wwf</t>
-  </si>
-  <si>
-    <t>Tees</t>
-  </si>
-  <si>
-    <t>Band</t>
-  </si>
-  <si>
-    <t>Distressed</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>2xl</t>
-  </si>
-  <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>Brockum</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>Authentic</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Faded</t>
-  </si>
-  <si>
-    <t>Biker</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Rap</t>
-  </si>
-  <si>
-    <t>Tri</t>
-  </si>
-  <si>
-    <t>Blend</t>
-  </si>
-  <si>
-    <t>My</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>Weed</t>
-  </si>
-  <si>
-    <t>Nfl</t>
-  </si>
-  <si>
-    <t>Skull</t>
-  </si>
-  <si>
     <t>Ford</t>
-  </si>
-  <si>
-    <t>Trucks</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Rainbow</t>
-  </si>
-  <si>
-    <t>Gift</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Ride</t>
-  </si>
-  <si>
-    <t>Motorcycle</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Retro</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Loom</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Lot</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>90's</t>
-  </si>
-  <si>
-    <t>Vntg</t>
-  </si>
-  <si>
-    <t>August</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1008,13 +1113,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="5">
         <v>2</v>
@@ -1022,1610 +1127,1995 @@
     </row>
     <row r="3" spans="2:6" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>149</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6">
         <f ca="1">TODAY()</f>
-        <v>44782</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>163</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>326</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>323</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>81</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>90</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>152</v>
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>24</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>152</v>
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>77</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>152</v>
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>152</v>
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>152</v>
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>9</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>152</v>
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>28</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>16</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>17</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>152</v>
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>24</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>30</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>22</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>21</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>152</v>
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>152</v>
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>23</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>152</v>
+        <v>200</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>152</v>
+      <c r="D57" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>9</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>47</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>14</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>38</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>152</v>
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66">
-        <v>7</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>152</v>
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69">
-        <v>7</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70">
-        <v>10</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>152</v>
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>7</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>152</v>
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>10</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>152</v>
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>152</v>
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74">
-        <v>6</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75">
-        <v>7</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>152</v>
+        <v>35</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C76">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C77">
-        <v>6</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>152</v>
+        <v>38</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C78">
-        <v>25</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79">
-        <v>28</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C80">
-        <v>14</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81">
-        <v>9</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82">
-        <v>6</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>152</v>
+        <v>60</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C83">
-        <v>11</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>152</v>
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84">
-        <v>10</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86">
-        <v>6</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87">
-        <v>8</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <v>7</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>152</v>
+      <c r="D88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C89">
-        <v>6</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C90">
-        <v>8</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>152</v>
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>9</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>152</v>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>152</v>
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93">
-        <v>7</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94">
-        <v>16</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95">
-        <v>11</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97">
-        <v>10</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98">
-        <v>6</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99">
-        <v>7</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100">
-        <v>6</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>152</v>
+        <v>42</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101">
-        <v>28</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>152</v>
+        <v>41</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103">
-        <v>6</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C104">
-        <v>41</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C105">
-        <v>10</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C106">
-        <v>12</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C107">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C109">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C110">
-        <v>7</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C111">
-        <v>9</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112">
-        <v>9</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>152</v>
+        <v>19</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C113">
-        <v>6</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C114">
-        <v>15</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>152</v>
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C115">
-        <v>6</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>152</v>
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116">
-        <v>13</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117">
-        <v>24</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C118">
-        <v>24</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>152</v>
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119">
-        <v>8</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>152</v>
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C120">
-        <v>19</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C121">
-        <v>6</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C122">
-        <v>6</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>152</v>
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C123">
-        <v>11</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124">
-        <v>7</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C125">
-        <v>9</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C126">
-        <v>13</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C127">
-        <v>17</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>152</v>
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C128">
-        <v>11</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C129">
-        <v>6</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C130">
-        <v>6</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131">
-        <v>6</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132">
-        <v>6</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C133">
-        <v>12</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>152</v>
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C134">
-        <v>7</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C135">
-        <v>6</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>152</v>
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C136">
-        <v>14</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>152</v>
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C137">
-        <v>7</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C138">
-        <v>6</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139">
-        <v>8</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140">
-        <v>8</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C141">
-        <v>7</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C142">
         <v>10</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>152</v>
+      <c r="D142" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C143">
-        <v>8</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C144">
-        <v>8</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>152</v>
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C145">
-        <v>8</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>152</v>
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C146">
-        <v>12</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>152</v>
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C147">
-        <v>24</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B148" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B149" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149">
+        <v>17</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B150" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150">
+        <v>8</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152">
+        <v>11</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B154" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154">
+        <v>18</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B156" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B158" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158">
+        <v>7</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160">
+        <v>14</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161">
+        <v>9</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164">
+        <v>17</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165">
+        <v>17</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B166" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B168" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168">
+        <v>9</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B169" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169">
+        <v>9</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B170" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B171" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B172" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B173" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B174" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175">
+        <v>9</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B177" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B178" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B179" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179">
+        <v>9</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B180" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180">
+        <v>12</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181">
+        <v>12</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182">
+        <v>8</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ebay_scraper.xlsx
+++ b/ebay_scraper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romek\Desktop\ebay scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D26FFBD-E490-444D-877F-FBB89B2C160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550F0B2-B59C-4FDE-90E4-5C3C286788CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="20505" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_data" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="240">
   <si>
     <t>Title</t>
   </si>
@@ -68,97 +69,613 @@
     <t>Month</t>
   </si>
   <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Start Row</t>
+  </si>
+  <si>
+    <t>2xl</t>
+  </si>
+  <si>
+    <t>Current Month</t>
+  </si>
+  <si>
+    <t>Xl</t>
+  </si>
+  <si>
+    <t>Times Ran (mth)</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Graphic</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Surf</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sided</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>X-large</t>
+  </si>
+  <si>
+    <t>90's</t>
+  </si>
+  <si>
+    <t>Marlboro</t>
+  </si>
+  <si>
+    <t>Pocket</t>
+  </si>
+  <si>
+    <t>Stitch</t>
+  </si>
+  <si>
+    <t>Wwe</t>
+  </si>
+  <si>
+    <t>Punk</t>
+  </si>
+  <si>
+    <t>Wrestling</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Nwt</t>
+  </si>
+  <si>
+    <t>Harley</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Made</t>
+  </si>
+  <si>
+    <t>Distressed</t>
+  </si>
+  <si>
+    <t>70s</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>80s</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Majestic</t>
+  </si>
+  <si>
+    <t>Nfl</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>90s</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>80’s</t>
+  </si>
+  <si>
+    <t>Grateful</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>Champions</t>
+  </si>
+  <si>
+    <t>Korn</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>Nba</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Stars</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>With</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Sleeve</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>Tie</t>
+  </si>
+  <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>Skateboards</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Skull</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Brockum</t>
+  </si>
+  <si>
+    <t>1980s</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>2000s</t>
+  </si>
+  <si>
+    <t>Gildan</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Wwf</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Loom</t>
+  </si>
+  <si>
+    <t>Anvil</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Stussy</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>Rap</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Giant</t>
+  </si>
+  <si>
+    <t>Faded</t>
+  </si>
+  <si>
+    <t>Y2k</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Biker</t>
+  </si>
+  <si>
     <t>American</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Start Row</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
-    <t>Current Month</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Times Ran (mth)</t>
-  </si>
-  <si>
-    <t>2xl</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>Sided</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>Tri</t>
-  </si>
-  <si>
-    <t>Blend</t>
-  </si>
-  <si>
-    <t>Political</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Sleeve</t>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Hop</t>
+  </si>
+  <si>
+    <t>Liquid</t>
   </si>
   <si>
     <t>Over</t>
   </si>
   <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>Is</t>
-  </si>
-  <si>
-    <t>Graphic</t>
-  </si>
-  <si>
-    <t>Day</t>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>90’s</t>
+  </si>
+  <si>
+    <t>Looney</t>
+  </si>
+  <si>
+    <t>Tunes</t>
+  </si>
+  <si>
+    <t>Taz</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Funny</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Promo</t>
+  </si>
+  <si>
+    <t>Retro</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Skateboard</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Aop</t>
+  </si>
+  <si>
+    <t>Bootleg</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>00s</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>Ringer</t>
   </si>
   <si>
     <t>Love</t>
   </si>
   <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>Print</t>
-  </si>
-  <si>
-    <t>Xl</t>
-  </si>
-  <si>
-    <t>Dog</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Up</t>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Unisex</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>Nascar</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>Spellout</t>
+  </si>
+  <si>
+    <t>Skate</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Hanes</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>Yankees</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Baseball</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Embroidered</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Wars</t>
+  </si>
+  <si>
+    <t>Mlb</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Olympics</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>Stone</t>
   </si>
   <si>
     <t>1990s</t>
   </si>
   <si>
-    <t>Red</t>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>Nature</t>
   </si>
   <si>
     <t>Mickey</t>
@@ -167,460 +684,100 @@
     <t>Mouse</t>
   </si>
   <si>
-    <t>Usa</t>
-  </si>
-  <si>
-    <t>Made</t>
-  </si>
-  <si>
-    <t>Stitch</t>
-  </si>
-  <si>
-    <t>80s</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Promo</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Tour</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Classic</t>
-  </si>
-  <si>
-    <t>Retro</t>
-  </si>
-  <si>
-    <t>Pink</t>
-  </si>
-  <si>
-    <t>Biker</t>
-  </si>
-  <si>
-    <t>Logo</t>
+    <t>3xl</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Anime</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Birdhouse</t>
+  </si>
+  <si>
+    <t>Harley-davidson</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>00's</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>Flip</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Film</t>
   </si>
   <si>
     <t>Rainbow</t>
   </si>
   <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Brockum</t>
-  </si>
-  <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Loom</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
-  <si>
-    <t>Movie</t>
-  </si>
-  <si>
-    <t>90s</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>Dye</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Embroidered</t>
-  </si>
-  <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>Neck</t>
-  </si>
-  <si>
-    <t>Pocket</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>Wars</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Disney</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>Skull</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>Y2k</t>
-  </si>
-  <si>
-    <t>Baseball</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>2000s</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>Country</t>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>T-shirts</t>
   </si>
   <si>
     <t>Fit</t>
   </si>
   <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Concert</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>90's</t>
-  </si>
-  <si>
-    <t>Harley-davidson</t>
-  </si>
-  <si>
-    <t>Lot</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Shirts</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>With</t>
-  </si>
-  <si>
-    <t>Harley</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>Nwt</t>
-  </si>
-  <si>
-    <t>Beach</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>|</t>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Fits</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Reseller</t>
   </si>
   <si>
     <t>Hard</t>
-  </si>
-  <si>
-    <t>Cafe</t>
-  </si>
-  <si>
-    <t>Taz</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Aop</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Unisex</t>
-  </si>
-  <si>
-    <t>Gift</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Rap</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Band</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>T-shirt,</t>
-  </si>
-  <si>
-    <t>Hip</t>
-  </si>
-  <si>
-    <t>Hop</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>Anime</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>3xl</t>
-  </si>
-  <si>
-    <t>Distressed</t>
-  </si>
-  <si>
-    <t>Anvil</t>
-  </si>
-  <si>
-    <t>Hanes</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>90’s</t>
-  </si>
-  <si>
-    <t>Wwf</t>
-  </si>
-  <si>
-    <t>Wwe</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Ringer</t>
-  </si>
-  <si>
-    <t>Nfl</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>Hot</t>
-  </si>
-  <si>
-    <t>Marlboro</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Looney</t>
-  </si>
-  <si>
-    <t>Tunes</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Nascar</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Punk</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>Funny</t>
-  </si>
-  <si>
-    <t>Out</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Faded</t>
-  </si>
-  <si>
-    <t>Motorcycle</t>
-  </si>
-  <si>
-    <t>Grateful</t>
-  </si>
-  <si>
-    <t>My</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>00s</t>
-  </si>
-  <si>
-    <t>Mc5</t>
-  </si>
-  <si>
-    <t>Sizes</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>Authentic</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>Weed</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Screen</t>
-  </si>
-  <si>
-    <t>Stars</t>
-  </si>
-  <si>
-    <t>Polo</t>
-  </si>
-  <si>
-    <t>Ford</t>
   </si>
 </sst>
 </file>
@@ -768,8 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1081,47 +1237,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="B1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.46484375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
     </row>
@@ -1130,17 +1286,17 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f ca="1">TODAY()</f>
-        <v>44784</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
@@ -1148,16 +1304,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>702</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9">
-        <v>2</v>
+      <c r="F4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
@@ -1165,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1176,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -1187,7 +1343,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -1198,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1209,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1220,7 +1376,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1231,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -1242,7 +1398,7 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1253,7 +1409,7 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1264,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1275,7 +1431,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1286,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1297,7 +1453,7 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1308,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1319,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>271</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1330,7 +1486,7 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1341,7 +1497,7 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>326</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1352,7 +1508,7 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1363,7 +1519,7 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -1374,7 +1530,7 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1385,7 +1541,7 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>659</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1396,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1407,7 +1563,7 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1418,7 +1574,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1429,7 +1585,7 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1440,7 +1596,7 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1451,7 +1607,7 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1462,7 +1618,7 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1473,7 +1629,7 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1484,7 +1640,7 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1495,7 +1651,7 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1506,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1517,7 +1673,7 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -1528,7 +1684,7 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1539,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1550,7 +1706,7 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1561,7 +1717,7 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -1572,7 +1728,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -1583,7 +1739,7 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -1594,7 +1750,7 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -1605,7 +1761,7 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -1616,7 +1772,7 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -1627,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -1638,7 +1794,7 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -1649,7 +1805,7 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -1660,7 +1816,7 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -1671,7 +1827,7 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -1682,7 +1838,7 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -1693,7 +1849,7 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -1704,7 +1860,7 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -1715,7 +1871,7 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -1726,7 +1882,7 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -1737,7 +1893,7 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -1748,7 +1904,7 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -1759,7 +1915,7 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>275</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -1770,7 +1926,7 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -1781,7 +1937,7 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -1792,7 +1948,7 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -1803,7 +1959,7 @@
         <v>68</v>
       </c>
       <c r="C63">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -1814,7 +1970,7 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -1825,7 +1981,7 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1836,7 +1992,7 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -1847,7 +2003,7 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -1858,7 +2014,7 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -1869,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -1880,7 +2036,7 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -1891,7 +2047,7 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -1902,7 +2058,7 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
         <v>4</v>
@@ -1913,7 +2069,7 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -1935,7 +2091,7 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -1946,7 +2102,7 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -1957,7 +2113,7 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -1968,7 +2124,7 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -1979,7 +2135,7 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -1990,7 +2146,7 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2001,7 +2157,7 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -2012,7 +2168,7 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -2023,7 +2179,7 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -2034,7 +2190,7 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>4</v>
@@ -2045,7 +2201,7 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
         <v>4</v>
@@ -2056,7 +2212,7 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2067,7 +2223,7 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -2078,7 +2234,7 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -2089,7 +2245,7 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -2100,7 +2256,7 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -2111,7 +2267,7 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -2122,7 +2278,7 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -2133,7 +2289,7 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -2144,7 +2300,7 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2155,7 +2311,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -2166,7 +2322,7 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -2177,7 +2333,7 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -2188,7 +2344,7 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -2199,7 +2355,7 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -2210,7 +2366,7 @@
         <v>105</v>
       </c>
       <c r="C100">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -2221,7 +2377,7 @@
         <v>106</v>
       </c>
       <c r="C101">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -2232,7 +2388,7 @@
         <v>107</v>
       </c>
       <c r="C102">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -2243,7 +2399,7 @@
         <v>108</v>
       </c>
       <c r="C103">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -2254,7 +2410,7 @@
         <v>109</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -2265,7 +2421,7 @@
         <v>110</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -2276,7 +2432,7 @@
         <v>111</v>
       </c>
       <c r="C106">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -2287,7 +2443,7 @@
         <v>112</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -2298,7 +2454,7 @@
         <v>113</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -2309,7 +2465,7 @@
         <v>114</v>
       </c>
       <c r="C109">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -2320,7 +2476,7 @@
         <v>115</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -2331,7 +2487,7 @@
         <v>116</v>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -2342,7 +2498,7 @@
         <v>117</v>
       </c>
       <c r="C112">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -2353,7 +2509,7 @@
         <v>118</v>
       </c>
       <c r="C113">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -2364,7 +2520,7 @@
         <v>119</v>
       </c>
       <c r="C114">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -2375,7 +2531,7 @@
         <v>120</v>
       </c>
       <c r="C115">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
         <v>4</v>
@@ -2386,7 +2542,7 @@
         <v>121</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -2397,7 +2553,7 @@
         <v>122</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -2408,7 +2564,7 @@
         <v>123</v>
       </c>
       <c r="C118">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2419,7 +2575,7 @@
         <v>124</v>
       </c>
       <c r="C119">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -2430,7 +2586,7 @@
         <v>125</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -2441,7 +2597,7 @@
         <v>126</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -2452,7 +2608,7 @@
         <v>127</v>
       </c>
       <c r="C122">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -2463,7 +2619,7 @@
         <v>128</v>
       </c>
       <c r="C123">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -2474,7 +2630,7 @@
         <v>129</v>
       </c>
       <c r="C124">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -2485,7 +2641,7 @@
         <v>130</v>
       </c>
       <c r="C125">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -2496,7 +2652,7 @@
         <v>131</v>
       </c>
       <c r="C126">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -2507,7 +2663,7 @@
         <v>132</v>
       </c>
       <c r="C127">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -2518,7 +2674,7 @@
         <v>133</v>
       </c>
       <c r="C128">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -2540,7 +2696,7 @@
         <v>135</v>
       </c>
       <c r="C130">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -2551,7 +2707,7 @@
         <v>136</v>
       </c>
       <c r="C131">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -2562,7 +2718,7 @@
         <v>137</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -2573,7 +2729,7 @@
         <v>138</v>
       </c>
       <c r="C133">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -2584,7 +2740,7 @@
         <v>139</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -2595,7 +2751,7 @@
         <v>140</v>
       </c>
       <c r="C135">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -2606,7 +2762,7 @@
         <v>141</v>
       </c>
       <c r="C136">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -2617,7 +2773,7 @@
         <v>142</v>
       </c>
       <c r="C137">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -2628,7 +2784,7 @@
         <v>143</v>
       </c>
       <c r="C138">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -2639,7 +2795,7 @@
         <v>144</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
@@ -2650,7 +2806,7 @@
         <v>145</v>
       </c>
       <c r="C140">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -2661,7 +2817,7 @@
         <v>146</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -2672,7 +2828,7 @@
         <v>147</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
@@ -2683,7 +2839,7 @@
         <v>148</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -2694,7 +2850,7 @@
         <v>149</v>
       </c>
       <c r="C144">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
         <v>4</v>
@@ -2705,7 +2861,7 @@
         <v>150</v>
       </c>
       <c r="C145">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -2716,7 +2872,7 @@
         <v>151</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -2727,7 +2883,7 @@
         <v>152</v>
       </c>
       <c r="C147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -2738,9 +2894,9 @@
         <v>153</v>
       </c>
       <c r="C148">
-        <v>13</v>
-      </c>
-      <c r="D148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2749,9 +2905,9 @@
         <v>154</v>
       </c>
       <c r="C149">
-        <v>17</v>
-      </c>
-      <c r="D149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2760,9 +2916,9 @@
         <v>155</v>
       </c>
       <c r="C150">
-        <v>8</v>
-      </c>
-      <c r="D150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2771,9 +2927,9 @@
         <v>156</v>
       </c>
       <c r="C151">
-        <v>8</v>
-      </c>
-      <c r="D151" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D151" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2782,9 +2938,9 @@
         <v>157</v>
       </c>
       <c r="C152">
-        <v>11</v>
-      </c>
-      <c r="D152" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2793,9 +2949,9 @@
         <v>158</v>
       </c>
       <c r="C153">
-        <v>11</v>
-      </c>
-      <c r="D153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2804,9 +2960,9 @@
         <v>159</v>
       </c>
       <c r="C154">
-        <v>18</v>
-      </c>
-      <c r="D154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D154" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2815,9 +2971,9 @@
         <v>160</v>
       </c>
       <c r="C155">
-        <v>10</v>
-      </c>
-      <c r="D155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2826,9 +2982,9 @@
         <v>161</v>
       </c>
       <c r="C156">
-        <v>6</v>
-      </c>
-      <c r="D156" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D156" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2837,9 +2993,9 @@
         <v>162</v>
       </c>
       <c r="C157">
-        <v>11</v>
-      </c>
-      <c r="D157" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D157" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2848,9 +3004,9 @@
         <v>163</v>
       </c>
       <c r="C158">
-        <v>7</v>
-      </c>
-      <c r="D158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2859,9 +3015,9 @@
         <v>164</v>
       </c>
       <c r="C159">
-        <v>8</v>
-      </c>
-      <c r="D159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2870,9 +3026,9 @@
         <v>165</v>
       </c>
       <c r="C160">
-        <v>14</v>
-      </c>
-      <c r="D160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2881,9 +3037,9 @@
         <v>166</v>
       </c>
       <c r="C161">
-        <v>9</v>
-      </c>
-      <c r="D161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2892,9 +3048,9 @@
         <v>167</v>
       </c>
       <c r="C162">
-        <v>11</v>
-      </c>
-      <c r="D162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2903,9 +3059,9 @@
         <v>168</v>
       </c>
       <c r="C163">
-        <v>7</v>
-      </c>
-      <c r="D163" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2914,9 +3070,9 @@
         <v>169</v>
       </c>
       <c r="C164">
-        <v>17</v>
-      </c>
-      <c r="D164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2925,9 +3081,9 @@
         <v>170</v>
       </c>
       <c r="C165">
-        <v>17</v>
-      </c>
-      <c r="D165" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2936,9 +3092,9 @@
         <v>171</v>
       </c>
       <c r="C166">
-        <v>12</v>
-      </c>
-      <c r="D166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D166" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2947,9 +3103,9 @@
         <v>172</v>
       </c>
       <c r="C167">
-        <v>11</v>
-      </c>
-      <c r="D167" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2958,9 +3114,9 @@
         <v>173</v>
       </c>
       <c r="C168">
-        <v>9</v>
-      </c>
-      <c r="D168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2969,9 +3125,9 @@
         <v>174</v>
       </c>
       <c r="C169">
-        <v>9</v>
-      </c>
-      <c r="D169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2980,9 +3136,9 @@
         <v>175</v>
       </c>
       <c r="C170">
-        <v>10</v>
-      </c>
-      <c r="D170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2991,9 +3147,9 @@
         <v>176</v>
       </c>
       <c r="C171">
-        <v>8</v>
-      </c>
-      <c r="D171" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D171" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3002,9 +3158,9 @@
         <v>177</v>
       </c>
       <c r="C172">
-        <v>6</v>
-      </c>
-      <c r="D172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3013,9 +3169,9 @@
         <v>178</v>
       </c>
       <c r="C173">
-        <v>6</v>
-      </c>
-      <c r="D173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3024,9 +3180,9 @@
         <v>179</v>
       </c>
       <c r="C174">
-        <v>8</v>
-      </c>
-      <c r="D174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3035,9 +3191,9 @@
         <v>180</v>
       </c>
       <c r="C175">
-        <v>9</v>
-      </c>
-      <c r="D175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3046,9 +3202,9 @@
         <v>181</v>
       </c>
       <c r="C176">
-        <v>6</v>
-      </c>
-      <c r="D176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3057,9 +3213,9 @@
         <v>182</v>
       </c>
       <c r="C177">
-        <v>7</v>
-      </c>
-      <c r="D177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3068,9 +3224,9 @@
         <v>183</v>
       </c>
       <c r="C178">
-        <v>7</v>
-      </c>
-      <c r="D178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3079,9 +3235,9 @@
         <v>184</v>
       </c>
       <c r="C179">
-        <v>9</v>
-      </c>
-      <c r="D179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3090,9 +3246,9 @@
         <v>185</v>
       </c>
       <c r="C180">
-        <v>12</v>
-      </c>
-      <c r="D180" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3101,9 +3257,9 @@
         <v>186</v>
       </c>
       <c r="C181">
-        <v>12</v>
-      </c>
-      <c r="D181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3112,9 +3268,581 @@
         <v>187</v>
       </c>
       <c r="C182">
+        <v>61</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B183" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183">
+        <v>23</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186">
+        <v>29</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C187">
+        <v>31</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B190" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190">
         <v>8</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B193" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B194" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B195" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195">
+        <v>21</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B196" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B197" t="s">
+        <v>202</v>
+      </c>
+      <c r="C197">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B198" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198">
+        <v>14</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B199" t="s">
+        <v>204</v>
+      </c>
+      <c r="C199">
+        <v>18</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B200" t="s">
+        <v>205</v>
+      </c>
+      <c r="C200">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B201" t="s">
+        <v>206</v>
+      </c>
+      <c r="C201">
+        <v>33</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B202" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B203" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B204" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204">
+        <v>22</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B205" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205">
+        <v>10</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B207" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B208" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208">
+        <v>19</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B209" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B210" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210">
+        <v>30</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B211" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B212" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B213" t="s">
+        <v>218</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+      <c r="D213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B214" t="s">
+        <v>219</v>
+      </c>
+      <c r="C214">
+        <v>20</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+      <c r="C215">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B216" t="s">
+        <v>221</v>
+      </c>
+      <c r="C216">
+        <v>9</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B217" t="s">
+        <v>222</v>
+      </c>
+      <c r="C217">
+        <v>21</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B219" t="s">
+        <v>224</v>
+      </c>
+      <c r="C219">
+        <v>15</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B220" t="s">
+        <v>225</v>
+      </c>
+      <c r="C220">
+        <v>9</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B221" t="s">
+        <v>226</v>
+      </c>
+      <c r="C221">
+        <v>12</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B222" t="s">
+        <v>227</v>
+      </c>
+      <c r="C222">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B223" t="s">
+        <v>228</v>
+      </c>
+      <c r="C223">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B224" t="s">
+        <v>229</v>
+      </c>
+      <c r="C224">
+        <v>18</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B225" t="s">
+        <v>230</v>
+      </c>
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B226" t="s">
+        <v>231</v>
+      </c>
+      <c r="C226">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B227" t="s">
+        <v>232</v>
+      </c>
+      <c r="C227">
+        <v>18</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B228" t="s">
+        <v>233</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B229" t="s">
+        <v>234</v>
+      </c>
+      <c r="C229">
+        <v>9</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B230" t="s">
+        <v>235</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B231" t="s">
+        <v>236</v>
+      </c>
+      <c r="C231">
+        <v>7</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B232" t="s">
+        <v>237</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B233" t="s">
+        <v>238</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B234" t="s">
+        <v>239</v>
+      </c>
+      <c r="C234">
+        <v>20</v>
+      </c>
+      <c r="D234" t="s">
         <v>4</v>
       </c>
     </row>
